--- a/grafy/pocty-resitelu-kluku-holek.xlsx
+++ b/grafy/pocty-resitelu-kluku-holek.xlsx
@@ -13,7 +13,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$A:$A,Sheet1!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="125725" iterate="1"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -314,10 +313,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15119903762029746"/>
-          <c:y val="5.4235928842228089E-2"/>
-          <c:w val="0.6819759405074366"/>
-          <c:h val="0.74246172353455808"/>
+          <c:x val="0.15119903762029749"/>
+          <c:y val="5.4235928842228102E-2"/>
+          <c:w val="0.80975371828521425"/>
+          <c:h val="0.74246172353455819"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -336,11 +335,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$P$2:$P$14</c:f>
@@ -452,11 +446,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$P$2:$P$14</c:f>
@@ -554,11 +543,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="120630272"/>
-        <c:axId val="120636928"/>
+        <c:axId val="84331520"/>
+        <c:axId val="70534656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="120630272"/>
+        <c:axId val="84331520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="27"/>
@@ -595,13 +584,13 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120636928"/>
+        <c:crossAx val="70534656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120636928"/>
+        <c:axId val="70534656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -639,7 +628,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120630272"/>
+        <c:crossAx val="84331520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -650,10 +639,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.84588320209973755"/>
-          <c:y val="0.23011264216972879"/>
-          <c:w val="0.14022790901137358"/>
-          <c:h val="0.17866360454943131"/>
+          <c:x val="0.19866097987751535"/>
+          <c:y val="5.8816345873432485E-2"/>
+          <c:w val="0.18467235345581803"/>
+          <c:h val="0.17866360454943134"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -671,8 +660,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1000,7 +989,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="15"/>
